--- a/Artificiall_eye_ver00/Digikey/UVA_AE_PROTOTYPE_BOM_ver01.xlsx
+++ b/Artificiall_eye_ver00/Digikey/UVA_AE_PROTOTYPE_BOM_ver01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Artificial Eye\PCBdesign_sk\Artificiall_eye_ver00\Digikey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0C6C3C74-E431-4D86-B54E-6E0262011F0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7BC0B96D-0AE1-4ED4-A843-EABDC91E9AB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1562,19 +1562,19 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1328125" customWidth="1"/>
+    <col min="2" max="2" width="5.265625" customWidth="1"/>
+    <col min="3" max="3" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.1328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1582,7 +1582,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:8" ht="14.65" thickBot="1"/>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>64</v>
@@ -1600,7 +1600,6 @@
         <v>26</v>
       </c>
       <c r="F4" s="7">
-        <f>COUNTA(A12:A41)</f>
         <v>30</v>
       </c>
     </row>
@@ -1611,8 +1610,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="9">
-        <f>COUNTIF(H12:H41,"smt")</f>
-        <v>27</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1622,8 +1620,7 @@
         <v>28</v>
       </c>
       <c r="F6" s="9">
-        <f>COUNTIF(H12:H41,"Thru-hole")</f>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1636,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1">
+    <row r="8" spans="1:8" ht="14.65" thickBot="1">
       <c r="A8" s="5"/>
       <c r="B8" s="4"/>
       <c r="E8" s="8" t="s">
@@ -2199,7 +2196,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1">
+    <row r="32" spans="1:9" ht="14.65" thickBot="1">
       <c r="A32" s="4">
         <v>21</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1">
+    <row r="33" spans="1:8" ht="14.65" thickBot="1">
       <c r="A33" s="4">
         <v>22</v>
       </c>
@@ -2381,7 +2378,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15.75" thickBot="1">
+    <row r="39" spans="1:8" ht="14.65" thickBot="1">
       <c r="A39" s="4">
         <v>28</v>
       </c>
@@ -2407,7 +2404,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+    <row r="40" spans="1:8" ht="14.65" thickBot="1">
       <c r="A40" s="4">
         <v>29</v>
       </c>
